--- a/data/raw/china/china_city_health_jan.xlsx
+++ b/data/raw/china/china_city_health_jan.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikaros/Desktop/gpl-covid/data/raw/china/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7090B64-48C1-6342-9D77-2B3D8D8D0E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="25460" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="confirmed" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="recovery" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="death" sheetId="3" r:id="rId6"/>
+    <sheet name="confirmed" sheetId="1" r:id="rId1"/>
+    <sheet name="recovery" sheetId="2" r:id="rId2"/>
+    <sheet name="death" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -207,32 +216,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF454545"/>
       <name val="微软雅黑"/>
     </font>
@@ -242,7 +254,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,7 +276,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -278,64 +296,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -525,20 +535,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,50 +564,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>43840.0</v>
+        <v>43840</v>
       </c>
       <c r="E1" s="2">
-        <v>43841.0</v>
+        <v>43841</v>
       </c>
       <c r="F1" s="2">
-        <v>43842.0</v>
+        <v>43842</v>
       </c>
       <c r="G1" s="2">
-        <v>43843.0</v>
+        <v>43843</v>
       </c>
       <c r="H1" s="2">
-        <v>43844.0</v>
+        <v>43844</v>
       </c>
       <c r="I1" s="2">
-        <v>43845.0</v>
+        <v>43845</v>
       </c>
       <c r="J1" s="2">
-        <v>43846.0</v>
+        <v>43846</v>
       </c>
       <c r="K1" s="2">
-        <v>43847.0</v>
+        <v>43847</v>
       </c>
       <c r="L1" s="2">
-        <v>43848.0</v>
+        <v>43848</v>
       </c>
       <c r="M1" s="2">
-        <v>43849.0</v>
+        <v>43849</v>
       </c>
       <c r="N1" s="2">
-        <v>43850.0</v>
+        <v>43850</v>
       </c>
       <c r="O1" s="2">
-        <v>43851.0</v>
+        <v>43851</v>
       </c>
       <c r="P1" s="2">
-        <v>43852.0</v>
+        <v>43852</v>
       </c>
       <c r="Q1" s="2">
-        <v>43853.0</v>
+        <v>43853</v>
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -603,50 +618,50 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="I2" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="K2" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="L2" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="M2" s="3">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="N2" s="3">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="O2" s="3">
-        <v>363.0</v>
+        <v>365</v>
       </c>
       <c r="P2" s="3">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="Q2" s="3">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -667,19 +682,19 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O3" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="3">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,13 +717,13 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,10 +747,10 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,10 +774,10 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,10 +801,10 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,10 +828,10 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,13 +854,13 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,19 +881,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P10" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="3">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,13 +916,13 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,19 +943,19 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,10 +979,10 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,10 +1006,10 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1018,10 +1033,10 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,10 +1060,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,13 +1086,13 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,13 +1115,13 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,19 +1142,19 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,19 +1175,19 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,16 +1209,16 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,14 +1241,14 @@
       <c r="N22" s="6"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,10 +1272,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1284,10 +1299,10 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,10 +1326,10 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1337,13 +1352,13 @@
       <c r="N26" s="6"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1365,16 +1380,16 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,16 +1411,16 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,13 +1443,13 @@
       <c r="N29" s="6"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,17 +1471,17 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,13 +1504,13 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1517,16 +1532,16 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1548,16 +1563,16 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,13 +1595,13 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1608,16 +1623,16 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,16 +1654,16 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q36" s="3">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
@@ -1671,13 +1686,13 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -1698,19 +1713,19 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P38" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q38" s="3">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -1731,19 +1746,19 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="P39" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="3">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,13 +1781,13 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,13 +1810,13 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1824,13 +1839,13 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,13 +1868,13 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,16 +1896,16 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,13 +1928,13 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,13 +1957,13 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1970,16 +1985,16 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P47" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,13 +2017,13 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,13 +2046,13 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,13 +2075,13 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,13 +2104,13 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2118,13 +2133,13 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,13 +2162,13 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2176,13 +2191,13 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,28 +2220,29 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,49 +2253,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>43840.0</v>
+        <v>43840</v>
       </c>
       <c r="E1" s="2">
-        <v>43841.0</v>
+        <v>43841</v>
       </c>
       <c r="F1" s="2">
-        <v>43842.0</v>
+        <v>43842</v>
       </c>
       <c r="G1" s="2">
-        <v>43843.0</v>
+        <v>43843</v>
       </c>
       <c r="H1" s="2">
-        <v>43844.0</v>
+        <v>43844</v>
       </c>
       <c r="I1" s="2">
-        <v>43845.0</v>
+        <v>43845</v>
       </c>
       <c r="J1" s="2">
-        <v>43846.0</v>
+        <v>43846</v>
       </c>
       <c r="K1" s="2">
-        <v>43847.0</v>
+        <v>43847</v>
       </c>
       <c r="L1" s="2">
-        <v>43848.0</v>
+        <v>43848</v>
       </c>
       <c r="M1" s="2">
-        <v>43849.0</v>
+        <v>43849</v>
       </c>
       <c r="N1" s="2">
-        <v>43850.0</v>
+        <v>43850</v>
       </c>
       <c r="O1" s="2">
-        <v>43851.0</v>
+        <v>43851</v>
       </c>
       <c r="P1" s="2">
-        <v>43852.0</v>
+        <v>43852</v>
       </c>
       <c r="Q1" s="2">
-        <v>43853.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,49 +2306,49 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2356,25 +2372,26 @@
       <c r="O3" s="6"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2385,49 +2402,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>43840.0</v>
+        <v>43840</v>
       </c>
       <c r="E1" s="2">
-        <v>43841.0</v>
+        <v>43841</v>
       </c>
       <c r="F1" s="2">
-        <v>43842.0</v>
+        <v>43842</v>
       </c>
       <c r="G1" s="2">
-        <v>43843.0</v>
+        <v>43843</v>
       </c>
       <c r="H1" s="2">
-        <v>43844.0</v>
+        <v>43844</v>
       </c>
       <c r="I1" s="2">
-        <v>43845.0</v>
+        <v>43845</v>
       </c>
       <c r="J1" s="2">
-        <v>43846.0</v>
+        <v>43846</v>
       </c>
       <c r="K1" s="2">
-        <v>43847.0</v>
+        <v>43847</v>
       </c>
       <c r="L1" s="2">
-        <v>43848.0</v>
+        <v>43848</v>
       </c>
       <c r="M1" s="2">
-        <v>43849.0</v>
+        <v>43849</v>
       </c>
       <c r="N1" s="2">
-        <v>43850.0</v>
+        <v>43850</v>
       </c>
       <c r="O1" s="2">
-        <v>43851.0</v>
+        <v>43851</v>
       </c>
       <c r="P1" s="2">
-        <v>43852.0</v>
+        <v>43852</v>
       </c>
       <c r="Q1" s="2">
-        <v>43853.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,49 +2455,49 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P2" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="3">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2491,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="Q3" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>